--- a/csdata/Fe/SI/Fe4+.xlsx
+++ b/csdata/Fe/SI/Fe4+.xlsx
@@ -1,17 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/csdata/Fe/SI/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810028C2-F183-AF47-B5CA-4B9741434658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Energy (eV)</t>
   </si>
@@ -30,29 +52,42 @@
   <si>
     <t>Electron impact single ionization of multiply charged iron ions Stenke 1999</t>
   </si>
+  <si>
+    <t>Unc at peak</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -60,54 +95,57 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="11" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -297,20 +335,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -326,143 +369,150 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
-        <v>49.9999999999999</v>
+        <v>49.999999999999901</v>
       </c>
       <c r="B2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>-17.0</v>
+        <v>-17</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="F2">
+        <f>_xlfn.XLOOKUP(MAX(B:B),B:B,C:C)/MAX(B:B)</f>
+        <v>3.9517014270034047E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
-        <v>54.9104282544857</v>
+        <v>54.910428254485701</v>
       </c>
       <c r="B3" s="6">
-        <v>0.0643274853801183</v>
+        <v>6.4327485380118302E-2</v>
       </c>
       <c r="C3" s="4">
-        <v>0.002923976608187197</v>
+        <v>2.9239766081871968E-3</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
-        <v>59.9357989804602</v>
+        <v>59.935798980460198</v>
       </c>
       <c r="B4" s="6">
-        <v>0.0789473684210539</v>
+        <v>7.8947368421053904E-2</v>
       </c>
       <c r="C4" s="4">
-        <v>0.0014619883040936504</v>
+        <v>1.4619883040936504E-3</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
-        <v>65.0226116592524</v>
+        <v>65.022611659252405</v>
       </c>
       <c r="B5" s="6">
         <v>0.114035087719299</v>
       </c>
       <c r="C5" s="4">
-        <v>0.0014619883040934978</v>
+        <v>1.4619883040934978E-3</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
-        <v>69.968845517295</v>
+        <v>69.968845517294994</v>
       </c>
       <c r="B6" s="6">
         <v>0.160818713450293</v>
       </c>
       <c r="C6" s="4">
-        <v>0.016081871345029503</v>
+        <v>1.6081871345029503E-2</v>
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
-        <v>72.433655775119</v>
+        <v>72.433655775119007</v>
       </c>
       <c r="B7" s="6">
         <v>0.216374269005849</v>
       </c>
       <c r="C7" s="4">
-        <v>0.014619883040936005</v>
+        <v>1.4619883040936005E-2</v>
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
-        <v>74.9852945287136</v>
+        <v>74.985294528713595</v>
       </c>
       <c r="B8" s="6">
         <v>0.391812865497078</v>
       </c>
       <c r="C8" s="4">
-        <v>0.020467836257309996</v>
+        <v>2.0467836257309996E-2</v>
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
-        <v>77.4688922031344</v>
+        <v>77.468892203134402</v>
       </c>
       <c r="B9" s="6">
-        <v>0.581871345029242</v>
+        <v>0.58187134502924198</v>
       </c>
       <c r="C9" s="4">
-        <v>0.032163742690059005</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>3.2163742690059005E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
-        <v>80.0347494385418</v>
+        <v>80.034749438541795</v>
       </c>
       <c r="B10" s="6">
-        <v>0.70760233918129</v>
+        <v>0.70760233918129001</v>
       </c>
       <c r="C10" s="4">
-        <v>0.0380116959064325</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>3.8011695906432497E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
-        <v>85.0770009454941</v>
+        <v>85.077000945494106</v>
       </c>
       <c r="B11" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4">
-        <v>0.045321637426899986</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>4.5321637426899986E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
-        <v>94.9669785227937</v>
+        <v>94.966978522793696</v>
       </c>
       <c r="B12" s="6">
-        <v>1.46198830409357</v>
+        <v>1.4619883040935699</v>
       </c>
       <c r="C12" s="4">
-        <v>0.06286549707602507</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>6.2865497076025068E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>105.146605859334</v>
       </c>
@@ -470,21 +520,21 @@
         <v>1.83625730994152</v>
       </c>
       <c r="C13" s="4">
-        <v>0.07456140350877494</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>7.4561403508774937E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3">
         <v>120.028585183617</v>
       </c>
       <c r="B14" s="6">
-        <v>2.16666666666667</v>
+        <v>2.1666666666666701</v>
       </c>
       <c r="C14" s="4">
-        <v>0.08625730994152003</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>8.6257309941520033E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3">
         <v>140.120957378242</v>
       </c>
@@ -492,12 +542,12 @@
         <v>2.41520467836258</v>
       </c>
       <c r="C15" s="4">
-        <v>0.09649122807017507</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>9.6491228070175072E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3">
-        <v>159.953049660816</v>
+        <v>159.95304966081599</v>
       </c>
       <c r="B16" s="6">
         <v>2.51754385964913</v>
@@ -506,361 +556,361 @@
         <v>0.10087719298245501</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3">
         <v>180.007576237167</v>
       </c>
       <c r="B17" s="6">
-        <v>2.60818713450293</v>
+        <v>2.6081871345029302</v>
       </c>
       <c r="C17" s="4">
         <v>0.10380116959064489</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3">
-        <v>220.217387684986</v>
+        <v>220.21738768498599</v>
       </c>
       <c r="B18" s="6">
-        <v>2.66374269005848</v>
+        <v>2.6637426900584802</v>
       </c>
       <c r="C18" s="4">
         <v>0.10526315789473983</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3">
-        <v>240.371556002409</v>
+        <v>240.37155600240899</v>
       </c>
       <c r="B19" s="6">
-        <v>2.6608187134503</v>
+        <v>2.6608187134503001</v>
       </c>
       <c r="C19" s="4">
         <v>0.10526315789473495</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3">
         <v>269.958422430876</v>
       </c>
-      <c r="B20" s="7">
-        <v>2.63157894736843</v>
+      <c r="B20" s="5">
+        <v>2.6315789473684301</v>
       </c>
       <c r="C20" s="4">
         <v>0.10380116959064001</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3">
-        <v>300.115499078755</v>
-      </c>
-      <c r="B21" s="7">
-        <v>2.56140350877193</v>
+        <v>300.11549907875502</v>
+      </c>
+      <c r="B21" s="5">
+        <v>2.5614035087719298</v>
       </c>
       <c r="C21" s="4">
         <v>0.10087719298246012</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3">
-        <v>330.261313518052</v>
-      </c>
-      <c r="B22" s="7">
-        <v>2.51461988304094</v>
+        <v>330.26131351805202</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2.5146198830409401</v>
       </c>
       <c r="C22" s="4">
-        <v>0.09649122807017485</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>9.649122807017485E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3">
-        <v>360.486638463317</v>
-      </c>
-      <c r="B23" s="7">
-        <v>2.48538011695907</v>
+        <v>360.48663846331698</v>
+      </c>
+      <c r="B23" s="5">
+        <v>2.4853801169590701</v>
       </c>
       <c r="C23" s="4">
-        <v>0.09649122807017485</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>9.649122807017485E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3">
-        <v>400.756629259614</v>
-      </c>
-      <c r="B24" s="7">
-        <v>2.42982456140351</v>
+        <v>400.75662925961399</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2.4298245614035099</v>
       </c>
       <c r="C24" s="4">
-        <v>0.09356725146199008</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="7">
-        <v>450.084981821047</v>
-      </c>
-      <c r="B25" s="7">
+        <v>9.3567251461990075E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="5">
+        <v>450.08498182104699</v>
+      </c>
+      <c r="B25" s="5">
         <v>2.34795321637427</v>
       </c>
       <c r="C25" s="4">
-        <v>0.09064327485380508</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="7">
+        <v>9.0643274853805078E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="5">
         <v>500.364010615979</v>
       </c>
-      <c r="B26" s="7">
-        <v>2.25438596491228</v>
+      <c r="B26" s="5">
+        <v>2.2543859649122799</v>
       </c>
       <c r="C26" s="4">
-        <v>0.08771929824561497</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="7">
-        <v>550.624262627066</v>
-      </c>
-      <c r="B27" s="7">
+        <v>8.7719298245614974E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="5">
+        <v>550.62426262706595</v>
+      </c>
+      <c r="B27" s="5">
         <v>2.14035087719299</v>
       </c>
       <c r="C27" s="4">
-        <v>0.08333333333332993</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="7">
-        <v>599.794335146723</v>
-      </c>
-      <c r="B28" s="7">
-        <v>2.08479532163743</v>
+        <v>8.3333333333329929E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="5">
+        <v>599.79433514672303</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2.0847953216374302</v>
       </c>
       <c r="C28" s="4">
-        <v>0.08040935672514493</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="7">
-        <v>660.042102371602</v>
-      </c>
-      <c r="B29" s="7">
-        <v>2.01461988304094</v>
+        <v>8.0409356725144931E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="5">
+        <v>660.04210237160203</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2.0146198830409401</v>
       </c>
       <c r="C29" s="4">
-        <v>0.08040935672514493</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="7">
-        <v>720.448774921964</v>
-      </c>
-      <c r="B30" s="7">
-        <v>1.93567251461989</v>
+        <v>8.0409356725144931E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="5">
+        <v>720.44877492196395</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1.9356725146198901</v>
       </c>
       <c r="C30" s="4">
-        <v>0.07456140350877005</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="7">
-        <v>780.003882593298</v>
-      </c>
-      <c r="B31" s="7">
-        <v>1.85672514619883</v>
+        <v>7.4561403508770052E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="5">
+        <v>780.00388259329804</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1.8567251461988299</v>
       </c>
       <c r="C31" s="4">
-        <v>0.07163742690058506</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="7">
-        <v>841.049421099287</v>
-      </c>
-      <c r="B32" s="7">
-        <v>1.7953216374269</v>
+        <v>7.1637426900585055E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="5">
+        <v>841.04942109928697</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1.7953216374269001</v>
       </c>
       <c r="C32" s="4">
-        <v>0.070175438596495</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="7">
-        <v>901.348851593461</v>
-      </c>
-      <c r="B33" s="7">
-        <v>1.7046783625731</v>
+        <v>7.0175438596494999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="5">
+        <v>901.34885159346095</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1.7046783625730999</v>
       </c>
       <c r="C33" s="4">
-        <v>0.06578947368421006</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="7">
-        <v>950.361164994931</v>
-      </c>
-      <c r="B34" s="7">
+        <v>6.5789473684210065E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5">
+        <v>950.36116499493096</v>
+      </c>
+      <c r="B34" s="5">
         <v>1.66374269005848</v>
       </c>
       <c r="C34" s="4">
-        <v>0.06578947368421006</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="7">
+        <v>6.5789473684210065E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="5">
         <v>1000.00000000001</v>
       </c>
-      <c r="B35" s="7">
-        <v>1.63157894736842</v>
+      <c r="B35" s="5">
+        <v>1.6315789473684199</v>
       </c>
       <c r="C35" s="4">
-        <v>0.06286549707602507</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
+        <v>6.2865497076025068E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
+    <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
+    <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52">
-      <c r="A52" s="7"/>
-      <c r="B52" s="7"/>
+    <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
+    <row r="53" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54">
-      <c r="A54" s="7"/>
-      <c r="B54" s="7"/>
+    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55">
-      <c r="A55" s="7"/>
-      <c r="B55" s="7"/>
+    <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56">
-      <c r="A56" s="7"/>
-      <c r="B56" s="7"/>
+    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A56" s="5"/>
+      <c r="B56" s="5"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57">
-      <c r="A57" s="7"/>
-      <c r="B57" s="7"/>
+    <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
+    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59">
-      <c r="A59" s="7"/>
-      <c r="B59" s="7"/>
+    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60">
-      <c r="A60" s="7"/>
-      <c r="B60" s="7"/>
+    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61">
-      <c r="A61" s="7"/>
-      <c r="B61" s="7"/>
+    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62">
-      <c r="A62" s="7"/>
-      <c r="B62" s="7"/>
+    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63">
-      <c r="A63" s="7"/>
-      <c r="B63" s="7"/>
+    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64">
-      <c r="A64" s="7"/>
-      <c r="B64" s="7"/>
+    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
       <c r="C64" s="6"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>